--- a/results/Table3.xlsx
+++ b/results/Table3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokutse/Desktop/malnutrition/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7DDACE-FB92-D741-947D-4E2BDCCB6777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D64C052-D92F-7E45-899D-E05A2FD7B9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="1300" windowWidth="22080" windowHeight="19540" xr2:uid="{AD0BCF9C-9CDC-EF45-94E9-E463E4E44A7F}"/>
+    <workbookView xWindow="16320" yWindow="880" windowWidth="22080" windowHeight="19540" xr2:uid="{AD0BCF9C-9CDC-EF45-94E9-E463E4E44A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Year 2014</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>-0.64 (0.01)</t>
-  </si>
-  <si>
-    <t>&lt;0.001</t>
   </si>
   <si>
     <t>-0.27 (0.02)</t>
@@ -125,15 +122,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,50 +452,50 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -502,22 +503,22 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="E3" s="5">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4">
         <v>0.58399999999999996</v>
       </c>
     </row>
@@ -525,45 +526,45 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4">
         <v>0.52600000000000002</v>
       </c>
     </row>
